--- a/spark/file/统计分析.xlsx
+++ b/spark/file/统计分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxi\git\bigData\spark\src\main\java\org\fxi\test\ml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxi\git\bigData\spark\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1239,12 +1239,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="337242464"/>
-        <c:axId val="337238112"/>
+        <c:axId val="480850736"/>
+        <c:axId val="480856176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="337242464"/>
+        <c:axId val="480850736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337238112"/>
+        <c:crossAx val="480856176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337238112"/>
+        <c:axId val="480856176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337242464"/>
+        <c:crossAx val="480850736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,12 +1655,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="485213920"/>
-        <c:axId val="485217728"/>
+        <c:axId val="480852912"/>
+        <c:axId val="402661008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="485213920"/>
+        <c:axId val="480852912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485217728"/>
+        <c:crossAx val="402661008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1678,7 +1678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485217728"/>
+        <c:axId val="402661008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485213920"/>
+        <c:crossAx val="480852912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,7 +1702,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1732,7 +1731,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1990,11 +1988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="485215008"/>
-        <c:axId val="485215552"/>
+        <c:axId val="402666992"/>
+        <c:axId val="402666448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485215008"/>
+        <c:axId val="402666992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485215552"/>
+        <c:crossAx val="402666448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +2043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485215552"/>
+        <c:axId val="402666448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2094,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485215008"/>
+        <c:crossAx val="402666992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2149,7 +2147,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2231,7 +2228,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2609,11 +2605,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="475515968"/>
-        <c:axId val="475513792"/>
+        <c:axId val="657477200"/>
+        <c:axId val="657472304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="475515968"/>
+        <c:axId val="657477200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,14 +2652,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475513792"/>
+        <c:crossAx val="657472304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475513792"/>
+        <c:axId val="657472304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +2710,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475515968"/>
+        <c:crossAx val="657477200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2728,7 +2724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2835,7 +2830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,11 +3028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="475508896"/>
-        <c:axId val="475509984"/>
+        <c:axId val="657477744"/>
+        <c:axId val="657478288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475508896"/>
+        <c:axId val="657477744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,7 +3075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475509984"/>
+        <c:crossAx val="657478288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3089,7 +3083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475509984"/>
+        <c:axId val="657478288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3134,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475508896"/>
+        <c:crossAx val="657477744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3409,11 +3403,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="475514336"/>
-        <c:axId val="475511616"/>
+        <c:axId val="657472848"/>
+        <c:axId val="657473392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="475514336"/>
+        <c:axId val="657472848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475511616"/>
+        <c:crossAx val="657473392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475511616"/>
+        <c:axId val="657473392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475514336"/>
+        <c:crossAx val="657472848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4140,11 +4134,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="485213376"/>
-        <c:axId val="485218272"/>
+        <c:axId val="402663184"/>
+        <c:axId val="402663728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485213376"/>
+        <c:axId val="402663184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485218272"/>
+        <c:crossAx val="402663728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4195,7 +4189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485218272"/>
+        <c:axId val="402663728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +4240,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485213376"/>
+        <c:crossAx val="402663184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5604,11 +5598,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480852368"/>
-        <c:axId val="480852912"/>
+        <c:axId val="660261344"/>
+        <c:axId val="660258624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480852368"/>
+        <c:axId val="660261344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480852912"/>
+        <c:crossAx val="660258624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5659,7 +5653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480852912"/>
+        <c:axId val="660258624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,7 +5704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480852368"/>
+        <c:crossAx val="660261344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10191,8 +10185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11449,7 +11443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>

--- a/spark/file/统计分析.xlsx
+++ b/spark/file/统计分析.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668" tabRatio="734" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="邀请分布150319" sheetId="2" r:id="rId1"/>
     <sheet name="日活注册分布150319" sheetId="3" r:id="rId2"/>
     <sheet name="积分分布150319" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId5"/>
-    <sheet name="useinfo" sheetId="6" r:id="rId6"/>
-    <sheet name="userCredit" sheetId="7" r:id="rId7"/>
-    <sheet name="userCreditLog" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
+    <sheet name="useinfo" sheetId="6" r:id="rId5"/>
+    <sheet name="userCredit" sheetId="7" r:id="rId6"/>
+    <sheet name="userCreditLog" sheetId="8" r:id="rId7"/>
+    <sheet name="userCreditLogDaily_7" sheetId="11" r:id="rId8"/>
     <sheet name="userCreditLogDaily" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="219">
   <si>
     <t>6~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,68 @@
     <t>按邀请人数分布（活跃值大于等于11的活跃用户）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>000000004715bd0001471db4889c0cfa</t>
+  </si>
+  <si>
+    <t>fa1006bc49cbd9170149cc1029a10018</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_synch_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> static final short credit_log_get_credit_intro_type = 0; //获取积分的方式： 推荐得到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_youhua_type = 1; //获取积分的方式： 右滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_action_type = 2; //获取积分的方式： action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_look_type = 3; //获取积分的方式：曝光，观察</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_share_product_type = 4; //获取积分的方式： 分享购买的商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_activity_type = 5;//活动增加积分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_sign_type = 6;//广告签到积分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_download_type = 7; //获取积分的方式： 下载</t>
+  </si>
 </sst>
 </file>
 
@@ -766,7 +828,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +851,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,12 +1362,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="480850736"/>
-        <c:axId val="480856176"/>
+        <c:axId val="-1717827456"/>
+        <c:axId val="-1717833984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="480850736"/>
+        <c:axId val="-1717827456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480856176"/>
+        <c:crossAx val="-1717833984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480856176"/>
+        <c:axId val="-1717833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480850736"/>
+        <c:crossAx val="-1717827456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1409,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1399,7 +1463,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2298,11 +2361,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="660256992"/>
-        <c:axId val="480855088"/>
+        <c:axId val="-1353812992"/>
+        <c:axId val="-1353809184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="660256992"/>
+        <c:axId val="-1353812992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2408,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480855088"/>
+        <c:crossAx val="-1353809184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2353,7 +2416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480855088"/>
+        <c:axId val="-1353809184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660256992"/>
+        <c:crossAx val="-1353812992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,7 +2481,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2500,7 +2562,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3389,11 +3450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="399567168"/>
-        <c:axId val="399571520"/>
+        <c:axId val="-1353816800"/>
+        <c:axId val="-1353816256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399567168"/>
+        <c:axId val="-1353816800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399571520"/>
+        <c:crossAx val="-1353816256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3444,7 +3505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399571520"/>
+        <c:axId val="-1353816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3495,7 +3556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399567168"/>
+        <c:crossAx val="-1353816800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3633,7 +3694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4040,11 +4100,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="656695408"/>
-        <c:axId val="656701936"/>
+        <c:axId val="-1353807552"/>
+        <c:axId val="-1353807008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656695408"/>
+        <c:axId val="-1353807552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,7 +4147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656701936"/>
+        <c:crossAx val="-1353807008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4095,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656701936"/>
+        <c:axId val="-1353807008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,7 +4206,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656695408"/>
+        <c:crossAx val="-1353807552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4160,7 +4220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4708,11 +4767,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="344534368"/>
-        <c:axId val="344534912"/>
+        <c:axId val="-1420986704"/>
+        <c:axId val="-1420985616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344534368"/>
+        <c:axId val="-1420986704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4755,7 +4814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344534912"/>
+        <c:crossAx val="-1420985616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4763,7 +4822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344534912"/>
+        <c:axId val="-1420985616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4814,7 +4873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344534368"/>
+        <c:crossAx val="-1420986704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4979,7 +5038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5882,11 +5940,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="656700848"/>
-        <c:axId val="656698672"/>
+        <c:axId val="-1420982352"/>
+        <c:axId val="-1420984528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656700848"/>
+        <c:axId val="-1420982352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5929,7 +5987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656698672"/>
+        <c:crossAx val="-1420984528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5937,7 +5995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656698672"/>
+        <c:axId val="-1420984528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,7 +6046,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656700848"/>
+        <c:crossAx val="-1420982352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6009,7 +6067,7 @@
           <c:x val="3.8944976968441382E-2"/>
           <c:y val="0.90005793100563625"/>
           <c:w val="0.90000000000000013"/>
-          <c:h val="4.4821030837280805E-2"/>
+          <c:h val="3.8135860136127055E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7012,11 +7070,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="688997024"/>
-        <c:axId val="688999200"/>
+        <c:axId val="-1420991600"/>
+        <c:axId val="-1420991056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="688997024"/>
+        <c:axId val="-1420991600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,7 +7117,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688999200"/>
+        <c:crossAx val="-1420991056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7067,7 +7125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="688999200"/>
+        <c:axId val="-1420991056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,7 +7176,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="688997024"/>
+        <c:crossAx val="-1420991600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7139,7 +7197,7 @@
           <c:x val="8.4062593441642575E-2"/>
           <c:y val="0.88804127544103173"/>
           <c:w val="0.9"/>
-          <c:h val="4.3302843495602317E-2"/>
+          <c:h val="3.7227262541884451E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7253,7 +7311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7660,11 +7717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="344528928"/>
-        <c:axId val="344530560"/>
+        <c:axId val="-1420981808"/>
+        <c:axId val="-1420993776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344528928"/>
+        <c:axId val="-1420981808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7707,7 +7764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344530560"/>
+        <c:crossAx val="-1420993776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7715,7 +7772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344530560"/>
+        <c:axId val="-1420993776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7766,7 +7823,1544 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344528928"/>
+        <c:crossAx val="-1420981808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>下载 签到 分布总量</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(downloadCredit) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$64:$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$66:$N$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>79368956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50262340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34474795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24578263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17834292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41638046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20620777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1922586</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>946955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>388937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27116385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(signCredit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$64:$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$67:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>60453556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42600154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30736697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22669274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16768932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40784282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21988666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2071999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>830851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>334591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36820</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13038406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1420981264"/>
+        <c:axId val="-1420996496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1420981264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420996496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1420996496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420981264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>下载签到人均分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(downloadCredit) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$64:$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$75:$N$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>57.379891398252916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.916323686482784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.72477537437604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.16237422638415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.90165287102741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179.573411192382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220.92111634883221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231.77649186256781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.62804354053279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.98385761589404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.76333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2507017226244503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(signCredit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$64:$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$76:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>43.704978025894668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.038457185996791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.28518136439268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.5089987778404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.6483545117386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.89136247584875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.57602314120419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249.78890898131405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.99899742194214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.4896523178808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122.73333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.96719543716749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1420995408"/>
+        <c:axId val="-1420989424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1420995408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420989424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1420989424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420995408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>日活下载签到分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(downloadCredit) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$152:$N$152</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$154:$N$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45324457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31722339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22699683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16821733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12559201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30384850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16041080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1422735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27116385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(signCredit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$152:$N$152</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$155:$N$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45698147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33342198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24436210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18434953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13840053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34467291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19146941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1734099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>624706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>271752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13038406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1420994320"/>
+        <c:axId val="-1420986160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1420994320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420986160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1420986160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420994320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8201,12 +9795,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="480852912"/>
-        <c:axId val="402661008"/>
+        <c:axId val="-1756900448"/>
+        <c:axId val="-1756901536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="480852912"/>
+        <c:axId val="-1756900448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8216,7 +9810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402661008"/>
+        <c:crossAx val="-1756901536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8224,7 +9818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402661008"/>
+        <c:axId val="-1756901536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,7 +9829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480852912"/>
+        <c:crossAx val="-1756900448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8248,7 +9842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8258,6 +9851,520 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>日活人均签到下载分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$163</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(downloadCredit) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$152:$N$152</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$163:$N$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>143.55675667115369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.62066395784169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.22491389764735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.64790726088836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276.91495788684568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.87071096446812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.43068474728233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578.34756097560978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>439.14465875370922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>334.75866336633663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.53629032258064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210.21594195033839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>积分分布150319!$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum(signCredit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>积分分布150319!$B$152:$N$152</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6~10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11~30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31~50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51~100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101~500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>501~5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5001~</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>没有填写推荐码</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>积分分布150319!$B$164:$N$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>144.74034998812257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197.20126332972552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.07213194276014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>274.68527707001624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.15617145125015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375.32576524778676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>536.44909223355376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>704.91829268292679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>463.43175074183978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336.32673267326732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.391129032258064</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.07839960307923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1420987792"/>
+        <c:axId val="-1355067184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1420987792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1355067184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1355067184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1420987792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8278,7 +10385,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8536,11 +10642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="402666992"/>
-        <c:axId val="402666448"/>
+        <c:axId val="-1756899360"/>
+        <c:axId val="-1756898272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402666992"/>
+        <c:axId val="-1756899360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8583,7 +10689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402666448"/>
+        <c:crossAx val="-1756898272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8591,7 +10697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402666448"/>
+        <c:axId val="-1756898272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8642,7 +10748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402666992"/>
+        <c:crossAx val="-1756899360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8695,7 +10801,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8777,7 +10882,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9155,11 +11259,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="657477200"/>
-        <c:axId val="657472304"/>
+        <c:axId val="-1757039088"/>
+        <c:axId val="-1757036912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="657477200"/>
+        <c:axId val="-1757039088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9202,14 +11306,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657472304"/>
+        <c:crossAx val="-1757036912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657472304"/>
+        <c:axId val="-1757036912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9260,7 +11364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657477200"/>
+        <c:crossAx val="-1757039088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9274,7 +11378,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9381,7 +11484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9580,11 +11682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="657477744"/>
-        <c:axId val="657478288"/>
+        <c:axId val="-1756905888"/>
+        <c:axId val="-1756903168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="657477744"/>
+        <c:axId val="-1756905888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9627,7 +11729,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657478288"/>
+        <c:crossAx val="-1756903168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9635,7 +11737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657478288"/>
+        <c:axId val="-1756903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9686,7 +11788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657477744"/>
+        <c:crossAx val="-1756905888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9775,7 +11877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9865,7 +11966,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9955,11 +12055,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="657472848"/>
-        <c:axId val="657473392"/>
+        <c:axId val="-1353804288"/>
+        <c:axId val="-1353812448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="657472848"/>
+        <c:axId val="-1353804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10002,7 +12102,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657473392"/>
+        <c:crossAx val="-1353812448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10010,7 +12110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657473392"/>
+        <c:axId val="-1353812448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10061,7 +12161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657472848"/>
+        <c:crossAx val="-1353804288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10125,7 +12225,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10397,9 +12496,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10483,7 +12580,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10686,11 +12782,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="402663184"/>
-        <c:axId val="402663728"/>
+        <c:axId val="-1353818432"/>
+        <c:axId val="-1353817888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402663184"/>
+        <c:axId val="-1353818432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10733,7 +12829,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402663728"/>
+        <c:crossAx val="-1353817888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10741,7 +12837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402663728"/>
+        <c:axId val="-1353817888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10792,7 +12888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402663184"/>
+        <c:crossAx val="-1353818432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10920,7 +13016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11327,11 +13422,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="660255360"/>
-        <c:axId val="660259168"/>
+        <c:axId val="-1353817344"/>
+        <c:axId val="-1353815168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="660255360"/>
+        <c:axId val="-1353817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11374,7 +13469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660259168"/>
+        <c:crossAx val="-1353815168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11382,7 +13477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660259168"/>
+        <c:axId val="-1353815168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11433,7 +13528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660255360"/>
+        <c:crossAx val="-1353817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11724,6 +13819,166 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14599,6 +16854,2018 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19553,8 +23820,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>822960</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19583,8 +23850,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19628,6 +23895,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="图表 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19925,7 +24312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -21183,8 +25570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="L212" workbookViewId="0">
+      <selection activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23366,51 +27753,51 @@
         <v>194</v>
       </c>
       <c r="B162">
-        <f>B153/B147</f>
+        <f t="shared" ref="B162:M162" si="17">B153/B147</f>
         <v>369.11141024625863</v>
       </c>
       <c r="C162">
-        <f>C153/C147</f>
+        <f t="shared" si="17"/>
         <v>734.27521188570893</v>
       </c>
       <c r="D162">
-        <f>D153/D147</f>
+        <f t="shared" si="17"/>
         <v>1092.3269463982538</v>
       </c>
       <c r="E162">
-        <f>E153/E147</f>
+        <f t="shared" si="17"/>
         <v>1446.2145932978708</v>
       </c>
       <c r="F162">
-        <f>F153/F147</f>
+        <f t="shared" si="17"/>
         <v>1796.2539136570092</v>
       </c>
       <c r="G162">
-        <f>G153/G147</f>
+        <f t="shared" si="17"/>
         <v>2578.918253786765</v>
       </c>
       <c r="H162">
-        <f>H153/H147</f>
+        <f t="shared" si="17"/>
         <v>5229.7013336321861</v>
       </c>
       <c r="I162">
-        <f>I153/I147</f>
+        <f t="shared" si="17"/>
         <v>14165.853658536585</v>
       </c>
       <c r="J162">
-        <f>J153/J147</f>
+        <f t="shared" si="17"/>
         <v>26465.72700296736</v>
       </c>
       <c r="K162">
-        <f>K153/K147</f>
+        <f t="shared" si="17"/>
         <v>75485.643564356433</v>
       </c>
       <c r="L162">
-        <f>L153/L147</f>
+        <f t="shared" si="17"/>
         <v>397545.96774193546</v>
       </c>
       <c r="M162">
-        <f>M153/M147</f>
+        <f t="shared" si="17"/>
         <v>3302650</v>
       </c>
       <c r="N162">
@@ -23423,55 +27810,55 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <f>B154/B147</f>
+        <f t="shared" ref="B163:N163" si="18">B154/B147</f>
         <v>143.55675667115369</v>
       </c>
       <c r="C163">
-        <f>C154/C147</f>
+        <f t="shared" si="18"/>
         <v>187.62066395784169</v>
       </c>
       <c r="D163">
-        <f>D154/D147</f>
+        <f t="shared" si="18"/>
         <v>220.22491389764735</v>
       </c>
       <c r="E163">
-        <f>E154/E147</f>
+        <f t="shared" si="18"/>
         <v>250.64790726088836</v>
       </c>
       <c r="F163">
-        <f>F154/F147</f>
+        <f t="shared" si="18"/>
         <v>276.91495788684568</v>
       </c>
       <c r="G163">
-        <f>G154/G147</f>
+        <f t="shared" si="18"/>
         <v>330.87071096446812</v>
       </c>
       <c r="H163">
-        <f>H154/H147</f>
+        <f t="shared" si="18"/>
         <v>449.43068474728233</v>
       </c>
       <c r="I163">
-        <f>I154/I147</f>
+        <f t="shared" si="18"/>
         <v>578.34756097560978</v>
       </c>
       <c r="J163">
-        <f>J154/J147</f>
+        <f t="shared" si="18"/>
         <v>439.14465875370922</v>
       </c>
       <c r="K163">
-        <f>K154/K147</f>
+        <f t="shared" si="18"/>
         <v>334.75866336633663</v>
       </c>
       <c r="L163">
-        <f>L154/L147</f>
+        <f t="shared" si="18"/>
         <v>148.53629032258064</v>
       </c>
       <c r="M163">
-        <f>M154/M147</f>
+        <f t="shared" si="18"/>
         <v>97.5</v>
       </c>
       <c r="N163">
-        <f>N154/N147</f>
+        <f t="shared" si="18"/>
         <v>210.21594195033839</v>
       </c>
     </row>
@@ -23480,55 +27867,55 @@
         <v>167</v>
       </c>
       <c r="B164">
-        <f>B155/B147</f>
+        <f t="shared" ref="B164:N164" si="19">B155/B147</f>
         <v>144.74034998812257</v>
       </c>
       <c r="C164">
-        <f>C155/C147</f>
+        <f t="shared" si="19"/>
         <v>197.20126332972552</v>
       </c>
       <c r="D164">
-        <f>D155/D147</f>
+        <f t="shared" si="19"/>
         <v>237.07213194276014</v>
       </c>
       <c r="E164">
-        <f>E155/E147</f>
+        <f t="shared" si="19"/>
         <v>274.68527707001624</v>
       </c>
       <c r="F164">
-        <f>F155/F147</f>
+        <f t="shared" si="19"/>
         <v>305.15617145125015</v>
       </c>
       <c r="G164">
-        <f>G155/G147</f>
+        <f t="shared" si="19"/>
         <v>375.32576524778676</v>
       </c>
       <c r="H164">
-        <f>H155/H147</f>
+        <f t="shared" si="19"/>
         <v>536.44909223355376</v>
       </c>
       <c r="I164">
-        <f>I155/I147</f>
+        <f t="shared" si="19"/>
         <v>704.91829268292679</v>
       </c>
       <c r="J164">
-        <f>J155/J147</f>
+        <f t="shared" si="19"/>
         <v>463.43175074183978</v>
       </c>
       <c r="K164">
-        <f>K155/K147</f>
+        <f t="shared" si="19"/>
         <v>336.32673267326732</v>
       </c>
       <c r="L164">
-        <f>L155/L147</f>
+        <f t="shared" si="19"/>
         <v>91.391129032258064</v>
       </c>
       <c r="M164">
-        <f>M155/M147</f>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="N164">
-        <f>N155/N147</f>
+        <f t="shared" si="19"/>
         <v>101.07839960307923</v>
       </c>
     </row>
@@ -23537,55 +27924,55 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <f>B156/B147</f>
+        <f t="shared" ref="B165:N165" si="20">B156/B147</f>
         <v>238.51279436218229</v>
       </c>
       <c r="C165">
-        <f>C156/C147</f>
+        <f t="shared" si="20"/>
         <v>345.98932439066226</v>
       </c>
       <c r="D165">
-        <f>D156/D147</f>
+        <f t="shared" si="20"/>
         <v>436.31888430754304</v>
       </c>
       <c r="E165">
-        <f>E156/E147</f>
+        <f t="shared" si="20"/>
         <v>520.2113450449242</v>
       </c>
       <c r="F165">
-        <f>F156/F147</f>
+        <f t="shared" si="20"/>
         <v>595.55598183181201</v>
       </c>
       <c r="G165">
-        <f>G156/G147</f>
+        <f t="shared" si="20"/>
         <v>740.89587621007695</v>
       </c>
       <c r="H165">
-        <f>H156/H147</f>
+        <f t="shared" si="20"/>
         <v>1005.5647764204864</v>
       </c>
       <c r="I165">
-        <f>I156/I147</f>
+        <f t="shared" si="20"/>
         <v>1180.8081300813008</v>
       </c>
       <c r="J165">
-        <f>J156/J147</f>
+        <f t="shared" si="20"/>
         <v>1017.709940652819</v>
       </c>
       <c r="K165">
-        <f>K156/K147</f>
+        <f t="shared" si="20"/>
         <v>1045.2017326732673</v>
       </c>
       <c r="L165">
-        <f>L156/L147</f>
+        <f t="shared" si="20"/>
         <v>461.79435483870969</v>
       </c>
       <c r="M165">
-        <f>M156/M147</f>
+        <f t="shared" si="20"/>
         <v>2323.5</v>
       </c>
       <c r="N165">
-        <f>N156/N147</f>
+        <f t="shared" si="20"/>
         <v>284.12618514182941</v>
       </c>
     </row>
@@ -23594,55 +27981,55 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <f>B157/B147</f>
+        <f t="shared" ref="B166:N166" si="21">B157/B147</f>
         <v>4502.6219114735923</v>
       </c>
       <c r="C166">
-        <f>C157/C147</f>
+        <f t="shared" si="21"/>
         <v>5402.6209715100222</v>
       </c>
       <c r="D166">
-        <f>D157/D147</f>
+        <f t="shared" si="21"/>
         <v>6049.0782634004363</v>
       </c>
       <c r="E166">
-        <f>E157/E147</f>
+        <f t="shared" si="21"/>
         <v>6596.9285980361483</v>
       </c>
       <c r="F166">
-        <f>F157/F147</f>
+        <f t="shared" si="21"/>
         <v>7033.7672972615428</v>
       </c>
       <c r="G166">
-        <f>G157/G147</f>
+        <f t="shared" si="21"/>
         <v>7742.9408055927606</v>
       </c>
       <c r="H166">
-        <f>H157/H147</f>
+        <f t="shared" si="21"/>
         <v>8694.1634820127765</v>
       </c>
       <c r="I166">
-        <f>I157/I147</f>
+        <f t="shared" si="21"/>
         <v>8925.9544715447155</v>
       </c>
       <c r="J166">
-        <f>J157/J147</f>
+        <f t="shared" si="21"/>
         <v>7799.9005934718098</v>
       </c>
       <c r="K166">
-        <f>K157/K147</f>
+        <f t="shared" si="21"/>
         <v>7050.1658415841584</v>
       </c>
       <c r="L166">
-        <f>L157/L147</f>
+        <f t="shared" si="21"/>
         <v>5569.677419354839</v>
       </c>
       <c r="M166">
-        <f>M157/M147</f>
+        <f t="shared" si="21"/>
         <v>11575.5</v>
       </c>
       <c r="N166">
-        <f>N157/N147</f>
+        <f t="shared" si="21"/>
         <v>6169.8181064088749</v>
       </c>
     </row>
@@ -23651,55 +28038,55 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <f>B158/B147</f>
+        <f t="shared" ref="B167:N167" si="22">B158/B147</f>
         <v>10.210246258611132</v>
       </c>
       <c r="C167">
-        <f>C158/C147</f>
+        <f t="shared" si="22"/>
         <v>13.205332481650371</v>
       </c>
       <c r="D167">
-        <f>D158/D147</f>
+        <f t="shared" si="22"/>
         <v>16.593955857385399</v>
       </c>
       <c r="E167">
-        <f>E158/E147</f>
+        <f t="shared" si="22"/>
         <v>17.129319207903087</v>
       </c>
       <c r="F167">
-        <f>F158/F147</f>
+        <f t="shared" si="22"/>
         <v>22.17321515191604</v>
       </c>
       <c r="G167">
-        <f>G158/G147</f>
+        <f t="shared" si="22"/>
         <v>26.219659599490381</v>
       </c>
       <c r="H167">
-        <f>H158/H147</f>
+        <f t="shared" si="22"/>
         <v>35.144458141880534</v>
       </c>
       <c r="I167">
-        <f>I158/I147</f>
+        <f t="shared" si="22"/>
         <v>53.573983739837395</v>
       </c>
       <c r="J167">
-        <f>J158/J147</f>
+        <f t="shared" si="22"/>
         <v>130.07418397626114</v>
       </c>
       <c r="K167">
-        <f>K158/K147</f>
+        <f t="shared" si="22"/>
         <v>642.13737623762381</v>
       </c>
       <c r="L167">
-        <f>L158/L147</f>
+        <f t="shared" si="22"/>
         <v>1254.2983870967741</v>
       </c>
       <c r="M167">
-        <f>M158/M147</f>
+        <f t="shared" si="22"/>
         <v>10000</v>
       </c>
       <c r="N167">
-        <f>N158/N147</f>
+        <f t="shared" si="22"/>
         <v>8.9117238919941393</v>
       </c>
     </row>
@@ -23708,55 +28095,55 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <f>B159/B147</f>
+        <f t="shared" ref="B168:N168" si="23">B159/B147</f>
         <v>309.08541293847492</v>
       </c>
       <c r="C168">
-        <f>C159/C147</f>
+        <f t="shared" si="23"/>
         <v>312.48725728514228</v>
       </c>
       <c r="D168">
-        <f>D159/D147</f>
+        <f t="shared" si="23"/>
         <v>314.21409653165171</v>
       </c>
       <c r="E168">
-        <f>E159/E147</f>
+        <f t="shared" si="23"/>
         <v>316.94188905279157</v>
       </c>
       <c r="F168">
-        <f>F159/F147</f>
+        <f t="shared" si="23"/>
         <v>321.88808043391981</v>
       </c>
       <c r="G168">
-        <f>G159/G147</f>
+        <f t="shared" si="23"/>
         <v>325.33435693051518</v>
       </c>
       <c r="H168">
-        <f>H159/H147</f>
+        <f t="shared" si="23"/>
         <v>343.67370839403787</v>
       </c>
       <c r="I168">
-        <f>I159/I147</f>
+        <f t="shared" si="23"/>
         <v>386.92235772357725</v>
       </c>
       <c r="J168">
-        <f>J159/J147</f>
+        <f t="shared" si="23"/>
         <v>162.16617210682492</v>
       </c>
       <c r="K168">
-        <f>K159/K147</f>
+        <f t="shared" si="23"/>
         <v>159.11757425742573</v>
       </c>
       <c r="L168">
-        <f>L159/L147</f>
+        <f t="shared" si="23"/>
         <v>809.83870967741939</v>
       </c>
       <c r="M168">
-        <f>M159/M147</f>
+        <f t="shared" si="23"/>
         <v>373</v>
       </c>
       <c r="N168">
-        <f>N159/N147</f>
+        <f t="shared" si="23"/>
         <v>1921.9579201972199</v>
       </c>
     </row>
@@ -23769,19 +28156,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23799,7 +28173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -24104,7 +28478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -24313,7 +28687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -24518,11 +28892,126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>42092.055810185186</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42092.055798611109</v>
+      </c>
+      <c r="G2" s="8">
+        <v>42092.055798611109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/spark/file/统计分析.xlsx
+++ b/spark/file/统计分析.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxi\git\bigData\spark\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668" tabRatio="734" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668" tabRatio="734" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="邀请分布150319" sheetId="2" r:id="rId1"/>
     <sheet name="日活注册分布150319" sheetId="3" r:id="rId2"/>
     <sheet name="积分分布150319" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId4"/>
+    <sheet name="每日积分分布" sheetId="10" r:id="rId4"/>
     <sheet name="useinfo" sheetId="6" r:id="rId5"/>
     <sheet name="userCredit" sheetId="7" r:id="rId6"/>
     <sheet name="userCreditLog" sheetId="8" r:id="rId7"/>
     <sheet name="userCreditLogDaily_7" sheetId="11" r:id="rId8"/>
     <sheet name="userCreditLogDaily" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="224">
   <si>
     <t>6~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,35 +738,56 @@
     <t xml:space="preserve"> static final short credit_log_get_credit_intro_type = 0; //获取积分的方式： 推荐得到</t>
   </si>
   <si>
-    <t xml:space="preserve">    static final short credit_log_get_credit_youhua_type = 1; //获取积分的方式： 右滑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static final short credit_log_get_credit_action_type = 2; //获取积分的方式： action</t>
-  </si>
-  <si>
     <t xml:space="preserve">    static final short credit_log_get_credit_look_type = 3; //获取积分的方式：曝光，观察</t>
   </si>
   <si>
     <t xml:space="preserve">    static final short credit_log_get_credit_share_product_type = 4; //获取积分的方式： 分享购买的商品</t>
   </si>
   <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_youhua_type = 1; //获取积分的方式： 右滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static final short credit_log_get_credit_action_type = 2; //获取积分的方式： action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">    static final short credit_log_get_credit_activity_type = 5;//活动增加积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
   </si>
   <si>
     <t xml:space="preserve">    static final short credit_log_get_credit_sign_type = 6;//广告签到积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
   </si>
   <si>
     <t xml:space="preserve">    static final short credit_log_get_credit_download_type = 7; //获取积分的方式： 下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,56 +892,32 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12338010425892453"/>
+          <c:x val="0.12338010425892457"/>
           <c:y val="6.5856851009660322E-2"/>
-          <c:w val="0.76802824049921381"/>
-          <c:h val="0.74323368477245411"/>
+          <c:w val="0.76802824049921414"/>
+          <c:h val="0.74323368477245377"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>被推荐的人数</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$16</c:f>
@@ -1031,7 +1023,6 @@
           <c:tx>
             <c:v>推荐的人数</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$16</c:f>
@@ -1140,7 +1131,6 @@
           <c:tx>
             <c:v>推荐人存日活</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$16</c:f>
@@ -1249,7 +1239,6 @@
           <c:tx>
             <c:v>被推荐人邀请收入</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$16</c:f>
@@ -1352,51 +1341,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1717827456"/>
-        <c:axId val="-1717833984"/>
+        <c:axId val="83318656"/>
+        <c:axId val="83320192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1717827456"/>
+        <c:axId val="83318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1717833984"/>
+        <c:crossAx val="83320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1717833984"/>
+        <c:axId val="83320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1717827456"/>
+        <c:crossAx val="83318656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1409,15 +1382,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1425,17 +1396,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1463,7 +1424,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1471,44 +1431,22 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7165177159026774E-2"/>
-          <c:y val="8.7249939744516752E-2"/>
-          <c:w val="0.91122762258382117"/>
+          <c:x val="8.7165177159026816E-2"/>
+          <c:y val="8.7249939744516739E-2"/>
+          <c:w val="0.91122762258382173"/>
           <c:h val="0.79012986717224332"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1532,7 +1470,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -1652,7 +1589,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -1772,7 +1708,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -1892,7 +1827,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2012,7 +1946,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2132,7 +2065,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2254,7 +2186,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2351,29 +2282,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353812992"/>
-        <c:axId val="-1353809184"/>
+        <c:axId val="87201280"/>
+        <c:axId val="87202816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353812992"/>
+        <c:axId val="87201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2408,19 +2329,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353809184"/>
+        <c:crossAx val="87202816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353809184"/>
+        <c:axId val="87202816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2438,7 +2357,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2467,7 +2385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353812992"/>
+        <c:crossAx val="87201280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2481,7 +2399,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2512,7 +2429,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2541,7 +2457,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2549,20 +2465,9 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2591,13 +2496,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2621,7 +2524,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2741,7 +2643,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2861,7 +2762,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -2981,7 +2881,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -3101,7 +3000,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -3221,7 +3119,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -3343,7 +3240,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -3440,29 +3336,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353816800"/>
-        <c:axId val="-1353816256"/>
+        <c:axId val="87125376"/>
+        <c:axId val="87139456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353816800"/>
+        <c:axId val="87125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3497,19 +3383,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353816256"/>
+        <c:crossAx val="87139456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353816256"/>
+        <c:axId val="87139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3527,7 +3411,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3556,7 +3439,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353816800"/>
+        <c:crossAx val="87125376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,13 +3457,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6236075329293514E-2"/>
+          <c:x val="2.6236075329293548E-2"/>
           <c:y val="0.92897021324291762"/>
           <c:w val="0.89999999999999991"/>
           <c:h val="4.0035867402695664E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3611,7 +3493,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3640,7 +3521,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3648,17 +3529,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3694,7 +3565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3702,34 +3572,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3753,7 +3601,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -3873,7 +3720,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -3993,7 +3839,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -4090,29 +3935,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353807552"/>
-        <c:axId val="-1353807008"/>
+        <c:axId val="88296064"/>
+        <c:axId val="88306048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353807552"/>
+        <c:axId val="88296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4147,19 +3982,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353807008"/>
+        <c:crossAx val="88306048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353807008"/>
+        <c:axId val="88306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4177,7 +4010,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4206,7 +4038,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353807552"/>
+        <c:crossAx val="88296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4220,7 +4052,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4251,7 +4082,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4280,7 +4110,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4288,17 +4118,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4357,11 +4177,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43537721671175234"/>
+          <c:x val="0.4353772167117525"/>
           <c:y val="1.0217113665389528E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4369,34 +4188,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4420,7 +4217,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -4540,7 +4336,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -4660,7 +4455,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$143:$N$143</c:f>
@@ -4757,29 +4551,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420986704"/>
-        <c:axId val="-1420985616"/>
+        <c:axId val="88425984"/>
+        <c:axId val="88427520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420986704"/>
+        <c:axId val="88425984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4814,19 +4598,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420985616"/>
+        <c:crossAx val="88427520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420985616"/>
+        <c:axId val="88427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4844,7 +4626,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4873,7 +4654,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420986704"/>
+        <c:crossAx val="88425984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4891,13 +4672,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23723403324584427"/>
-          <c:y val="0.89872630504520268"/>
-          <c:w val="0.24825893607302693"/>
-          <c:h val="4.3103749962289203E-2"/>
+          <c:x val="0.23723403324584436"/>
+          <c:y val="0.89872630504520257"/>
+          <c:w val="0.24825893607302701"/>
+          <c:h val="4.3103749962289183E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4928,7 +4708,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4957,7 +4736,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4965,17 +4744,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5038,7 +4807,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5046,48 +4814,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5111,7 +4843,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5231,7 +4962,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5351,7 +5081,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5471,7 +5200,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5591,7 +5319,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5711,7 +5438,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5833,7 +5559,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -5930,29 +5655,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420982352"/>
-        <c:axId val="-1420984528"/>
+        <c:axId val="88489344"/>
+        <c:axId val="88507520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420982352"/>
+        <c:axId val="88489344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5987,19 +5702,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420984528"/>
+        <c:crossAx val="88507520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420984528"/>
+        <c:axId val="88507520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6017,7 +5730,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6046,7 +5758,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420982352"/>
+        <c:crossAx val="88489344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6065,12 +5777,11 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8944976968441382E-2"/>
-          <c:y val="0.90005793100563625"/>
+          <c:y val="0.90005793100563591"/>
           <c:w val="0.90000000000000013"/>
           <c:h val="3.8135860136127055E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6101,7 +5812,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6130,7 +5840,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6138,17 +5848,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6181,8 +5881,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6190,34 +5888,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6241,7 +5917,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6361,7 +6036,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6481,7 +6155,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6601,7 +6274,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6721,7 +6393,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6841,7 +6512,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -6963,7 +6633,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -7060,29 +6729,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420991600"/>
-        <c:axId val="-1420991056"/>
+        <c:axId val="88577536"/>
+        <c:axId val="88579072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420991600"/>
+        <c:axId val="88577536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7117,19 +6776,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420991056"/>
+        <c:crossAx val="88579072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420991056"/>
+        <c:axId val="88579072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7147,7 +6804,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7176,7 +6832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420991600"/>
+        <c:crossAx val="88577536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7194,13 +6850,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4062593441642575E-2"/>
+          <c:x val="8.4062593441642658E-2"/>
           <c:y val="0.88804127544103173"/>
           <c:w val="0.9"/>
-          <c:h val="3.7227262541884451E-2"/>
+          <c:h val="3.7227262541884472E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7231,7 +6886,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7260,7 +6914,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7268,17 +6922,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7311,7 +6955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7319,34 +6962,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7370,7 +6991,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -7490,7 +7110,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -7610,7 +7229,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -7707,29 +7325,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420981808"/>
-        <c:axId val="-1420993776"/>
+        <c:axId val="88613632"/>
+        <c:axId val="88615168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420981808"/>
+        <c:axId val="88613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7764,19 +7372,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420993776"/>
+        <c:crossAx val="88615168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420993776"/>
+        <c:axId val="88615168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7794,7 +7400,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7823,7 +7428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420981808"/>
+        <c:crossAx val="88613632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7837,7 +7442,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7868,7 +7472,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7897,7 +7500,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7905,17 +7508,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7943,7 +7536,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7951,34 +7543,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8002,7 +7572,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -8122,7 +7691,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -8219,29 +7787,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420981264"/>
-        <c:axId val="-1420996496"/>
+        <c:axId val="88640128"/>
+        <c:axId val="88674688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420981264"/>
+        <c:axId val="88640128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8276,19 +7834,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420996496"/>
+        <c:crossAx val="88674688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420996496"/>
+        <c:axId val="88674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8306,7 +7862,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8335,7 +7890,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420981264"/>
+        <c:crossAx val="88640128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8349,7 +7904,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8380,7 +7934,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8409,7 +7962,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8417,17 +7970,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8455,7 +7998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8463,34 +8005,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8514,7 +8034,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -8634,7 +8153,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$64:$N$64</c:f>
@@ -8731,29 +8249,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420995408"/>
-        <c:axId val="-1420989424"/>
+        <c:axId val="88703744"/>
+        <c:axId val="88705280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420995408"/>
+        <c:axId val="88703744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8788,19 +8296,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420989424"/>
+        <c:crossAx val="88705280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420989424"/>
+        <c:axId val="88705280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8818,7 +8324,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8847,7 +8352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420995408"/>
+        <c:crossAx val="88703744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8861,7 +8366,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8892,7 +8396,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8921,7 +8424,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8929,17 +8432,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8967,8 +8460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8976,34 +8467,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9027,7 +8496,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -9147,7 +8615,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -9244,29 +8711,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420994320"/>
-        <c:axId val="-1420986160"/>
+        <c:axId val="88828544"/>
+        <c:axId val="88846720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420994320"/>
+        <c:axId val="88828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9301,19 +8758,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420986160"/>
+        <c:crossAx val="88846720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420986160"/>
+        <c:axId val="88846720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9331,7 +8786,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9360,7 +8814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420994320"/>
+        <c:crossAx val="88828544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9374,8 +8828,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9406,7 +8858,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9435,7 +8886,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9443,46 +8894,22 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
       <c:rAngAx val="1"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>推荐人存留比</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$15</c:f>
@@ -9585,7 +9012,6 @@
           <c:tx>
             <c:v>邀请总收益比</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$15</c:f>
@@ -9688,7 +9114,6 @@
           <c:tx>
             <c:v>收益/存留用户</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$15</c:f>
@@ -9785,51 +9210,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1756900448"/>
-        <c:axId val="-1756901536"/>
+        <c:axId val="83712256"/>
+        <c:axId val="83718144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1756900448"/>
+        <c:axId val="83712256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1756901536"/>
+        <c:crossAx val="83718144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1756901536"/>
+        <c:axId val="83718144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1756900448"/>
+        <c:crossAx val="83712256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9842,15 +9251,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9858,17 +9265,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -9896,8 +9293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9905,34 +9300,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9956,7 +9329,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -10076,7 +9448,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$152:$N$152</c:f>
@@ -10173,29 +9544,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1420987792"/>
-        <c:axId val="-1355067184"/>
+        <c:axId val="88863488"/>
+        <c:axId val="88865024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1420987792"/>
+        <c:axId val="88863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10230,19 +9591,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1355067184"/>
+        <c:crossAx val="88865024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1355067184"/>
+        <c:axId val="88865024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10260,7 +9619,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10289,7 +9647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420987792"/>
+        <c:crossAx val="88863488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10303,8 +9661,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10335,7 +9691,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10364,7 +9719,798 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>右滑</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42404219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43144532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41779355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41621870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39448942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38368990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40362643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40482045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41574033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41743541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="88819200"/>
+        <c:axId val="88820736"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88819200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88820736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88820736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88819200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32720822397200361"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>action</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>683017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>828830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>707559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>599034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>821210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1129139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>807020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1047567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>786047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="88890368"/>
+        <c:axId val="88916736"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88890368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88916736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88916736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88890368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>活动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>220992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="88929408"/>
+        <c:axId val="88930944"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88929408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88930944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88930944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88929408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>签到</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>530224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>404434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>396182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>403360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>409836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>481202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="88951808"/>
+        <c:axId val="88957696"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88951808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88957696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88957696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88951808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>172568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>274290</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="88990848"/>
+        <c:axId val="88992384"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="88990848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88992384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88992384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88990848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10372,20 +10518,9 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10414,13 +10549,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -10436,7 +10569,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$14</c:f>
@@ -10542,7 +10674,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>邀请分布150319!$A$3:$A$14</c:f>
@@ -10633,28 +10764,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-1756899360"/>
-        <c:axId val="-1756898272"/>
+        <c:axId val="83741312"/>
+        <c:axId val="85291392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1756899360"/>
+        <c:axId val="83741312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10689,19 +10810,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1756898272"/>
+        <c:crossAx val="85291392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1756898272"/>
+        <c:axId val="85291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -10719,7 +10838,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -10748,7 +10866,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1756899360"/>
+        <c:crossAx val="83741312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10801,7 +10919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10832,7 +10949,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10861,7 +10977,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10869,20 +10985,9 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10911,13 +11016,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -10933,7 +11036,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>日活注册分布150319!$A$2:$A$23</c:f>
@@ -11100,7 +11202,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>日活注册分布150319!$A$2:$A$23</c:f>
@@ -11249,29 +11350,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1757039088"/>
-        <c:axId val="-1757036912"/>
+        <c:axId val="83927808"/>
+        <c:axId val="83929344"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1757039088"/>
+        <c:axId val="83927808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -11306,18 +11396,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1757036912"/>
+        <c:crossAx val="83929344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1757036912"/>
+        <c:axId val="83929344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -11335,7 +11424,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -11364,7 +11452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1757039088"/>
+        <c:crossAx val="83927808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11378,7 +11466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -11409,7 +11496,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11438,7 +11524,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11446,17 +11532,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -11484,7 +11560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -11492,34 +11567,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -11532,7 +11585,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>日活注册分布150319!$H$4:$H$23</c:f>
@@ -11672,29 +11724,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1756905888"/>
-        <c:axId val="-1756903168"/>
+        <c:axId val="85340544"/>
+        <c:axId val="85342080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1756905888"/>
+        <c:axId val="85340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -11729,19 +11771,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1756903168"/>
+        <c:crossAx val="85342080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1756903168"/>
+        <c:axId val="85342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -11759,7 +11799,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -11788,7 +11827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1756905888"/>
+        <c:crossAx val="85340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11802,7 +11841,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11831,7 +11869,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11839,17 +11877,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -11877,7 +11905,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -11885,34 +11912,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -11925,7 +11930,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -11957,13 +11961,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -12045,29 +12043,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353804288"/>
-        <c:axId val="-1353812448"/>
+        <c:axId val="86968192"/>
+        <c:axId val="86969728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353804288"/>
+        <c:axId val="86968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12102,19 +12092,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353812448"/>
+        <c:crossAx val="86969728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353812448"/>
+        <c:axId val="86969728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -12132,7 +12120,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12161,7 +12148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353804288"/>
+        <c:crossAx val="86968192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12175,7 +12162,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12204,7 +12190,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12212,20 +12198,9 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12254,15 +12229,12 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="0"/>
       <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12273,7 +12245,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12284,7 +12255,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12303,7 +12273,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -12323,7 +12292,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -12343,7 +12311,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -12363,7 +12330,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -12383,7 +12349,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -12403,7 +12368,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -12423,7 +12387,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -12474,12 +12437,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -12560,14 +12518,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -12580,7 +12531,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12610,8 +12560,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12640,7 +12589,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12648,17 +12597,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout>
@@ -12666,10 +12605,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.44444444444444442"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:y val="2.7777777777777811E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -12698,13 +12636,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -12717,7 +12653,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$A$35:$A$40</c:f>
@@ -12772,29 +12707,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353818432"/>
-        <c:axId val="-1353817888"/>
+        <c:axId val="86859136"/>
+        <c:axId val="86877312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353818432"/>
+        <c:axId val="86859136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12829,19 +12754,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353817888"/>
+        <c:crossAx val="86877312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353817888"/>
+        <c:axId val="86877312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -12859,7 +12782,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -12888,7 +12810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353818432"/>
+        <c:crossAx val="86859136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12941,7 +12863,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12970,7 +12891,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12978,17 +12899,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -13016,7 +12927,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13024,34 +12934,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -13075,7 +12963,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -13195,7 +13082,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -13315,7 +13201,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>积分分布150319!$B$55:$N$55</c:f>
@@ -13412,29 +13297,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1353817344"/>
-        <c:axId val="-1353815168"/>
+        <c:axId val="87076224"/>
+        <c:axId val="87082112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1353817344"/>
+        <c:axId val="87076224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -13469,19 +13344,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353815168"/>
+        <c:crossAx val="87082112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1353815168"/>
+        <c:axId val="87082112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -13499,7 +13372,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -13528,7 +13400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353817344"/>
+        <c:crossAx val="87076224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13546,13 +13418,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16778958880139985"/>
-          <c:y val="0.8616892680081657"/>
-          <c:w val="0.29861080271690549"/>
-          <c:h val="4.1636116728932207E-2"/>
+          <c:x val="0.16778958880139996"/>
+          <c:y val="0.86168926800816603"/>
+          <c:w val="0.29861080271690565"/>
+          <c:h val="4.1636116728932214E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13583,7 +13454,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13612,7 +13482,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24023,6 +23893,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -24066,7 +24091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24098,10 +24123,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -24133,7 +24157,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -24309,14 +24332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" customWidth="1"/>
@@ -24333,7 +24356,7 @@
     <col min="13" max="13" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -24371,7 +24394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -24385,7 +24408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -24430,7 +24453,7 @@
         <v>0.18490419810601214</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -24475,7 +24498,7 @@
         <v>0.31704855669288046</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -24520,7 +24543,7 @@
         <v>0.54682861896838597</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -24565,7 +24588,7 @@
         <v>0.72429418888225416</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -24610,7 +24633,7 @@
         <v>0.88929325215185917</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -24655,7 +24678,7 @@
         <v>1.1421689552856749</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -24700,7 +24723,7 @@
         <v>1.6835333190486395</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -24745,7 +24768,7 @@
         <v>2.2588306208559374</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -24790,7 +24813,7 @@
         <v>2.666714408478946</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -24835,7 +24858,7 @@
         <v>17.244205298013245</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -24880,7 +24903,7 @@
         <v>172.87666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -24925,7 +24948,7 @@
         <v>1755.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -24962,7 +24985,7 @@
         <v>13.659125200451856</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -24983,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="F17">
         <f>SUM(F3:F16)</f>
@@ -24994,27 +25017,27 @@
         <v>31697910</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -25025,57 +25048,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -25089,21 +25112,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -25114,7 +25137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>41365</v>
       </c>
@@ -25122,7 +25145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>41426</v>
       </c>
@@ -25142,7 +25165,7 @@
         <v>10894104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>41456</v>
       </c>
@@ -25162,7 +25185,7 @@
         <v>142825</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>41487</v>
       </c>
@@ -25182,7 +25205,7 @@
         <v>114493</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>41518</v>
       </c>
@@ -25202,7 +25225,7 @@
         <v>106895</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>41548</v>
       </c>
@@ -25222,7 +25245,7 @@
         <v>99940</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>41579</v>
       </c>
@@ -25242,7 +25265,7 @@
         <v>93806</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>41609</v>
       </c>
@@ -25262,7 +25285,7 @@
         <v>95781</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>41640</v>
       </c>
@@ -25282,7 +25305,7 @@
         <v>97187</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>41671</v>
       </c>
@@ -25302,7 +25325,7 @@
         <v>97852</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>41699</v>
       </c>
@@ -25322,7 +25345,7 @@
         <v>98721</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>41730</v>
       </c>
@@ -25342,7 +25365,7 @@
         <v>92796</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>41760</v>
       </c>
@@ -25362,7 +25385,7 @@
         <v>107036</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>41791</v>
       </c>
@@ -25382,7 +25405,7 @@
         <v>74576</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>41821</v>
       </c>
@@ -25402,7 +25425,7 @@
         <v>69169</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>41852</v>
       </c>
@@ -25422,7 +25445,7 @@
         <v>66573</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>41883</v>
       </c>
@@ -25442,7 +25465,7 @@
         <v>67744</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>41913</v>
       </c>
@@ -25462,7 +25485,7 @@
         <v>70191</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>41944</v>
       </c>
@@ -25482,7 +25505,7 @@
         <v>76241</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>41974</v>
       </c>
@@ -25502,7 +25525,7 @@
         <v>89361</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>42005</v>
       </c>
@@ -25522,7 +25545,7 @@
         <v>125648</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>42036</v>
       </c>
@@ -25542,10 +25565,10 @@
         <v>1177843</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="B25">
         <f>SUM(B2:B24)</f>
         <v>1674000</v>
@@ -25567,14 +25590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView topLeftCell="L212" workbookViewId="0">
       <selection activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
@@ -25592,12 +25615,12 @@
     <col min="14" max="14" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="D1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -25609,7 +25632,7 @@
         <v>190.9153671</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -25621,7 +25644,7 @@
         <v>147.82830709999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -25634,7 +25657,7 @@
         <v>43.087060000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -25650,7 +25673,7 @@
         <v>32.3717635</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -25666,7 +25689,7 @@
         <v>4.1239311399999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -25682,7 +25705,7 @@
         <v>3.2641097000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -25698,7 +25721,7 @@
         <v>6.7547215100000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -25714,7 +25737,7 @@
         <v>116.77689205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -25730,7 +25753,7 @@
         <v>0.49339809000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -25746,12 +25769,12 @@
         <v>49.058509649999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -25759,7 +25782,7 @@
         <v>8942772</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -25767,7 +25790,7 @@
         <v>3401454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -25775,7 +25798,7 @@
         <v>846805</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -25783,7 +25806,7 @@
         <v>662070</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -25791,7 +25814,7 @@
         <v>5561</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -25799,12 +25822,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="B55">
         <v>1</v>
       </c>
@@ -25845,7 +25868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -25889,7 +25912,7 @@
         <v>1233038019</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -25933,7 +25956,7 @@
         <v>1063755029</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -25990,7 +26013,7 @@
         <v>169282990</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -26034,7 +26057,7 @@
         <v>3286555</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -26091,7 +26114,7 @@
         <v>375.17644433152645</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -26148,7 +26171,7 @@
         <v>323.66871359219607</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>191</v>
       </c>
@@ -26205,7 +26228,7 @@
         <v>51.507730739330391</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="B64">
         <v>1</v>
       </c>
@@ -26246,7 +26269,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -26290,7 +26313,7 @@
         <v>112398550</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -26334,7 +26357,7 @@
         <v>27116385</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -26378,7 +26401,7 @@
         <v>13038406</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -26422,7 +26445,7 @@
         <v>36650289</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -26466,7 +26489,7 @@
         <v>795863347</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -26510,7 +26533,7 @@
         <v>1149550</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -26554,12 +26577,12 @@
         <v>247919118</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -26616,7 +26639,7 @@
         <v>34.19950373567459</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -26673,7 +26696,7 @@
         <v>8.2507017226244503</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -26730,7 +26753,7 @@
         <v>3.96719543716749</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -26787,7 +26810,7 @@
         <v>11.151582432060318</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -26844,7 +26867,7 @@
         <v>242.1573188338549</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -26901,7 +26924,7 @@
         <v>0.3497735470728468</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>171</v>
       </c>
@@ -26958,42 +26981,42 @@
         <v>75.434343256084261</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="B143">
         <v>1</v>
       </c>
@@ -27034,7 +27057,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -27078,7 +27101,7 @@
         <v>1233038019</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -27122,7 +27145,7 @@
         <v>1063755029</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -27179,7 +27202,7 @@
         <v>169282990</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -27223,7 +27246,7 @@
         <v>128993</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -27280,7 +27303,7 @@
         <v>9558.9529586876815</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>190</v>
       </c>
@@ -27337,7 +27360,7 @@
         <v>8246.6105059964502</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -27394,7 +27417,7 @@
         <v>1312.3424526912313</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="B152">
         <v>1</v>
       </c>
@@ -27435,7 +27458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -27479,7 +27502,7 @@
         <v>112398550</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -27523,7 +27546,7 @@
         <v>27116385</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -27567,7 +27590,7 @@
         <v>13038406</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -27611,7 +27634,7 @@
         <v>36650289</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -27655,7 +27678,7 @@
         <v>795863347</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -27699,7 +27722,7 @@
         <v>1149550</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -27743,12 +27766,12 @@
         <v>247919118</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -27805,7 +27828,7 @@
         <v>9558.9529586876815</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -27862,7 +27885,7 @@
         <v>210.21594195033839</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -27919,7 +27942,7 @@
         <v>101.07839960307923</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -27976,7 +27999,7 @@
         <v>284.12618514182941</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -28033,7 +28056,7 @@
         <v>6169.8181064088749</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -28090,7 +28113,7 @@
         <v>8.9117238919941393</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -28156,37 +28179,254 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="B2">
+        <v>20150301</v>
+      </c>
+      <c r="C2">
+        <v>20150325</v>
+      </c>
+      <c r="D2">
+        <v>20150326</v>
+      </c>
+      <c r="E2">
+        <v>20150327</v>
+      </c>
+      <c r="F2">
+        <v>20150328</v>
+      </c>
+      <c r="G2">
+        <v>20150329</v>
+      </c>
+      <c r="H2">
+        <v>20150330</v>
+      </c>
+      <c r="I2">
+        <v>20150331</v>
+      </c>
+      <c r="J2">
+        <v>20150401</v>
+      </c>
+      <c r="K2">
+        <v>20150402</v>
+      </c>
+      <c r="L2">
+        <v>20150403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3">
+        <v>42404219</v>
+      </c>
+      <c r="C3">
+        <v>43144532</v>
+      </c>
+      <c r="D3">
+        <v>41779355</v>
+      </c>
+      <c r="E3">
+        <v>41621870</v>
+      </c>
+      <c r="F3">
+        <v>39448942</v>
+      </c>
+      <c r="G3">
+        <v>38368990</v>
+      </c>
+      <c r="H3">
+        <v>40362643</v>
+      </c>
+      <c r="I3">
+        <v>40482045</v>
+      </c>
+      <c r="J3">
+        <v>41574033</v>
+      </c>
+      <c r="K3">
+        <v>41743541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4">
+        <v>683017</v>
+      </c>
+      <c r="C4">
+        <v>828830</v>
+      </c>
+      <c r="D4">
+        <v>776818</v>
+      </c>
+      <c r="E4">
+        <v>707559</v>
+      </c>
+      <c r="F4">
+        <v>599034</v>
+      </c>
+      <c r="G4">
+        <v>821210</v>
+      </c>
+      <c r="H4">
+        <v>1129139</v>
+      </c>
+      <c r="I4">
+        <v>807020</v>
+      </c>
+      <c r="J4">
+        <v>1047567</v>
+      </c>
+      <c r="K4">
+        <v>786047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5">
+        <v>220992</v>
+      </c>
+      <c r="C5">
+        <v>141832</v>
+      </c>
+      <c r="D5">
+        <v>147618</v>
+      </c>
+      <c r="E5">
+        <v>147412</v>
+      </c>
+      <c r="F5">
+        <v>159314</v>
+      </c>
+      <c r="G5">
+        <v>136979</v>
+      </c>
+      <c r="H5">
+        <v>130430</v>
+      </c>
+      <c r="I5">
+        <v>147072</v>
+      </c>
+      <c r="J5">
+        <v>162435</v>
+      </c>
+      <c r="K5">
+        <v>166992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6">
+        <v>530224</v>
+      </c>
+      <c r="C6">
+        <v>404434</v>
+      </c>
+      <c r="D6">
+        <v>396182</v>
+      </c>
+      <c r="E6">
+        <v>398957</v>
+      </c>
+      <c r="F6">
+        <v>403360</v>
+      </c>
+      <c r="G6">
+        <v>409836</v>
+      </c>
+      <c r="H6">
+        <v>409112</v>
+      </c>
+      <c r="I6">
+        <v>416457</v>
+      </c>
+      <c r="J6">
+        <v>456526</v>
+      </c>
+      <c r="K6">
+        <v>481202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7">
+        <v>172568</v>
+      </c>
+      <c r="C7">
+        <v>191376</v>
+      </c>
+      <c r="D7">
+        <v>202093</v>
+      </c>
+      <c r="E7">
+        <v>221402</v>
+      </c>
+      <c r="F7">
+        <v>205829</v>
+      </c>
+      <c r="G7">
+        <v>188073</v>
+      </c>
+      <c r="H7">
+        <v>186930</v>
+      </c>
+      <c r="I7">
+        <v>243573</v>
+      </c>
+      <c r="J7">
+        <v>274290</v>
+      </c>
+      <c r="K7">
+        <v>276921</v>
+      </c>
+    </row>
+  </sheetData>
   <sortState ref="A1:B21">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="47" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -28329,7 +28569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -28479,19 +28719,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="32" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
@@ -28586,7 +28826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -28688,21 +28928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="44.21875" customWidth="1"/>
     <col min="5" max="31" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -28797,7 +29037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="B2" t="s">
         <v>97</v>
       </c>
@@ -28893,14 +29133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -28910,7 +29150,7 @@
     <col min="7" max="7" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28933,7 +29173,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -28956,49 +29196,49 @@
         <v>42092.055798611109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>214</v>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>215</v>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -29008,19 +29248,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="31" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -29115,7 +29355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>160</v>
       </c>

--- a/spark/file/统计分析.xlsx
+++ b/spark/file/统计分析.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="244">
   <si>
     <t>6~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,6 +779,77 @@
   <si>
     <t>下载</t>
   </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>人均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/2/16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/02/16-04/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有下载的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册日期下载用户趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150402下载用户还在下载的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载用户每日变化趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20150402_LOSS</t>
+  </si>
+  <si>
+    <t>20150401_LOSS</t>
+  </si>
+  <si>
+    <t>20150331_LOSS</t>
+  </si>
+  <si>
+    <t>20150330_LOSS</t>
+  </si>
+  <si>
+    <t>20150329_LOSS</t>
+  </si>
+  <si>
+    <t>20150328_LOSS</t>
+  </si>
+  <si>
+    <t>20150327_LOSS</t>
+  </si>
+  <si>
+    <t>20150326_LOSS</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -844,7 +915,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +941,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,10 +977,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12338010425892457"/>
+          <c:x val="0.12338010425892459"/>
           <c:y val="6.5856851009660322E-2"/>
-          <c:w val="0.76802824049921414"/>
-          <c:h val="0.74323368477245377"/>
+          <c:w val="0.76802824049921481"/>
+          <c:h val="0.74323368477245333"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1342,26 +1416,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="83318656"/>
-        <c:axId val="83320192"/>
+        <c:axId val="66348928"/>
+        <c:axId val="66350464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83318656"/>
+        <c:axId val="66348928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83320192"/>
+        <c:crossAx val="66350464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83320192"/>
+        <c:axId val="66350464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1443,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83318656"/>
+        <c:crossAx val="66348928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1388,7 +1462,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1438,9 +1512,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7165177159026816E-2"/>
+          <c:x val="8.7165177159026885E-2"/>
           <c:y val="8.7249939744516739E-2"/>
-          <c:w val="0.91122762258382173"/>
+          <c:w val="0.91122762258382228"/>
           <c:h val="0.79012986717224332"/>
         </c:manualLayout>
       </c:layout>
@@ -2284,11 +2358,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="87201280"/>
-        <c:axId val="87202816"/>
+        <c:axId val="71480832"/>
+        <c:axId val="71482368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87201280"/>
+        <c:axId val="71480832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,14 +2403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87202816"/>
+        <c:crossAx val="71482368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87202816"/>
+        <c:axId val="71482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87201280"/>
+        <c:crossAx val="71480832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,7 +2531,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3338,11 +3412,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="87125376"/>
-        <c:axId val="87139456"/>
+        <c:axId val="71404928"/>
+        <c:axId val="71423104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87125376"/>
+        <c:axId val="71404928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,14 +3457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87139456"/>
+        <c:crossAx val="71423104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87139456"/>
+        <c:axId val="71423104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3513,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87125376"/>
+        <c:crossAx val="71404928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3457,7 +3531,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6236075329293548E-2"/>
+          <c:x val="2.6236075329293587E-2"/>
           <c:y val="0.92897021324291762"/>
           <c:w val="0.89999999999999991"/>
           <c:h val="4.0035867402695664E-2"/>
@@ -3521,7 +3595,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3937,11 +4011,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88296064"/>
-        <c:axId val="88306048"/>
+        <c:axId val="71789184"/>
+        <c:axId val="71795072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88296064"/>
+        <c:axId val="71789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3982,14 +4056,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88306048"/>
+        <c:crossAx val="71795072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88306048"/>
+        <c:axId val="71795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88296064"/>
+        <c:crossAx val="71789184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4110,7 +4184,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4177,7 +4251,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4353772167117525"/>
+          <c:x val="0.43537721671175272"/>
           <c:y val="1.0217113665389528E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4553,11 +4627,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88425984"/>
-        <c:axId val="88427520"/>
+        <c:axId val="71915008"/>
+        <c:axId val="71916544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88425984"/>
+        <c:axId val="71915008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,14 +4672,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88427520"/>
+        <c:crossAx val="71916544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88427520"/>
+        <c:axId val="71916544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88425984"/>
+        <c:crossAx val="71915008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4672,10 +4746,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23723403324584436"/>
+          <c:x val="0.23723403324584441"/>
           <c:y val="0.89872630504520257"/>
-          <c:w val="0.24825893607302701"/>
-          <c:h val="4.3103749962289183E-2"/>
+          <c:w val="0.24825893607302718"/>
+          <c:h val="4.3103749962289155E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4736,7 +4810,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5657,11 +5731,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88489344"/>
-        <c:axId val="88507520"/>
+        <c:axId val="72244608"/>
+        <c:axId val="72262784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88489344"/>
+        <c:axId val="72244608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,14 +5776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88507520"/>
+        <c:crossAx val="72262784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88507520"/>
+        <c:axId val="72262784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5758,7 +5832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88489344"/>
+        <c:crossAx val="72244608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5777,7 +5851,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8944976968441382E-2"/>
-          <c:y val="0.90005793100563591"/>
+          <c:y val="0.90005793100563558"/>
           <c:w val="0.90000000000000013"/>
           <c:h val="3.8135860136127055E-2"/>
         </c:manualLayout>
@@ -5840,7 +5914,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6731,11 +6805,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88577536"/>
-        <c:axId val="88579072"/>
+        <c:axId val="72328704"/>
+        <c:axId val="72330240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88577536"/>
+        <c:axId val="72328704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,14 +6850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88579072"/>
+        <c:crossAx val="72330240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88579072"/>
+        <c:axId val="72330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6832,7 +6906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88577536"/>
+        <c:crossAx val="72328704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6850,10 +6924,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4062593441642658E-2"/>
+          <c:x val="8.4062593441642755E-2"/>
           <c:y val="0.88804127544103173"/>
           <c:w val="0.9"/>
-          <c:h val="3.7227262541884472E-2"/>
+          <c:h val="3.72272625418845E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -6914,7 +6988,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7327,11 +7401,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88613632"/>
-        <c:axId val="88615168"/>
+        <c:axId val="72430336"/>
+        <c:axId val="72431872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88613632"/>
+        <c:axId val="72430336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,14 +7446,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88615168"/>
+        <c:crossAx val="72431872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88615168"/>
+        <c:axId val="72431872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7428,7 +7502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88613632"/>
+        <c:crossAx val="72430336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7500,7 +7574,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7789,11 +7863,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88640128"/>
-        <c:axId val="88674688"/>
+        <c:axId val="72465024"/>
+        <c:axId val="72364416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88640128"/>
+        <c:axId val="72465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7834,14 +7908,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88674688"/>
+        <c:crossAx val="72364416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88674688"/>
+        <c:axId val="72364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7890,7 +7964,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88640128"/>
+        <c:crossAx val="72465024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7962,7 +8036,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8251,11 +8325,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88703744"/>
-        <c:axId val="88705280"/>
+        <c:axId val="72393472"/>
+        <c:axId val="72395008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88703744"/>
+        <c:axId val="72393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8296,14 +8370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88705280"/>
+        <c:crossAx val="72395008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88705280"/>
+        <c:axId val="72395008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +8426,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88703744"/>
+        <c:crossAx val="72393472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8424,7 +8498,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8713,11 +8787,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88828544"/>
-        <c:axId val="88846720"/>
+        <c:axId val="72780416"/>
+        <c:axId val="72794496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88828544"/>
+        <c:axId val="72780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8758,14 +8832,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88846720"/>
+        <c:crossAx val="72794496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88846720"/>
+        <c:axId val="72794496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8814,7 +8888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88828544"/>
+        <c:crossAx val="72780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8886,7 +8960,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9211,26 +9285,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="83712256"/>
-        <c:axId val="83718144"/>
+        <c:axId val="66930944"/>
+        <c:axId val="66940928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83712256"/>
+        <c:axId val="66930944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83718144"/>
+        <c:crossAx val="66940928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83718144"/>
+        <c:axId val="66940928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9238,7 +9312,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83712256"/>
+        <c:crossAx val="66930944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9257,7 +9331,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9546,11 +9620,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="88863488"/>
-        <c:axId val="88865024"/>
+        <c:axId val="72811264"/>
+        <c:axId val="72812800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88863488"/>
+        <c:axId val="72811264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9591,14 +9665,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88865024"/>
+        <c:crossAx val="72812800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88865024"/>
+        <c:axId val="72812800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9647,7 +9721,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88863488"/>
+        <c:crossAx val="72811264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9719,7 +9793,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9729,9 +9803,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -9834,26 +9906,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="88819200"/>
-        <c:axId val="88820736"/>
+        <c:axId val="72959488"/>
+        <c:axId val="72961024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88819200"/>
+        <c:axId val="72959488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88820736"/>
+        <c:crossAx val="72961024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88820736"/>
+        <c:axId val="72961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9861,20 +9933,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88819200"/>
+        <c:crossAx val="72959488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9889,7 +9960,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32720822397200361"/>
+          <c:x val="0.32720822397200405"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -9996,26 +10067,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="88890368"/>
-        <c:axId val="88916736"/>
+        <c:axId val="72989696"/>
+        <c:axId val="72880896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88890368"/>
+        <c:axId val="72989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88916736"/>
+        <c:crossAx val="72880896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88916736"/>
+        <c:axId val="72880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10023,20 +10094,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88890368"/>
+        <c:crossAx val="72989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10046,9 +10116,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -10154,26 +10222,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="88929408"/>
-        <c:axId val="88930944"/>
+        <c:axId val="72893568"/>
+        <c:axId val="72895104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88929408"/>
+        <c:axId val="72893568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88930944"/>
+        <c:crossAx val="72895104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88930944"/>
+        <c:axId val="72895104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10181,20 +10249,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88929408"/>
+        <c:crossAx val="72893568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10204,9 +10271,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -10312,26 +10377,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="88951808"/>
-        <c:axId val="88957696"/>
+        <c:axId val="72915968"/>
+        <c:axId val="72925952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88951808"/>
+        <c:axId val="72915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88957696"/>
+        <c:crossAx val="72925952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88957696"/>
+        <c:axId val="72925952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10339,20 +10404,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88951808"/>
+        <c:crossAx val="72915968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10470,26 +10534,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="88990848"/>
-        <c:axId val="88992384"/>
+        <c:axId val="73016448"/>
+        <c:axId val="73017984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88990848"/>
+        <c:axId val="73016448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88992384"/>
+        <c:crossAx val="73017984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88992384"/>
+        <c:axId val="73017984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10497,7 +10561,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88990848"/>
+        <c:crossAx val="73016448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10510,7 +10574,627 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>右滑</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$71:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1676845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1662050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1646551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1647797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1630533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1591284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1589523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1628843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1633046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73058944"/>
+        <c:axId val="73060736"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73058944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73060736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73060736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73058944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>action</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$72:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>347290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>396735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>454500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>371539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>443185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>412674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73089408"/>
+        <c:axId val="73090944"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73089408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73090944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73090944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73089408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>活动</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$73:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73119616"/>
+        <c:axId val="73121152"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73119616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73121152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73121152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73119616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>签到</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$74:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>107713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73473408"/>
+        <c:axId val="73483392"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73473408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73483392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73483392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73473408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10765,11 +11449,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="219"/>
-        <c:axId val="83741312"/>
-        <c:axId val="85291392"/>
+        <c:axId val="66968192"/>
+        <c:axId val="68260224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83741312"/>
+        <c:axId val="66968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,14 +11494,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85291392"/>
+        <c:crossAx val="68260224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85291392"/>
+        <c:axId val="68260224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10866,7 +11550,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83741312"/>
+        <c:crossAx val="66968192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10977,7 +11661,3027 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$75:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73516160"/>
+        <c:axId val="73517696"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73516160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73517696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73517696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73516160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>签到</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$130:$K$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$134:$K$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9225627361599811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9365769108707855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9490581122270525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0065506293372817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1541675717808815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2652431974100056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2387123210489923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0829590392032413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7350592237641838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6095677829718751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$135</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$130:$K$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$135:$K$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.47938966394161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8222386078749446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.832497056679935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9046613226978732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0146169281017032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9439305001173985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8488044256823688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6380699664247809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5383590294101315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5613085823691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="73534848"/>
+        <c:axId val="73536640"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="73534848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73536640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73536640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73534848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>下载次数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41647222222222247"/>
+          <c:y val="5.5555555555555518E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>172568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>274290</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73576832"/>
+        <c:axId val="73578368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73576832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73578368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73578368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73576832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>下载人数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$70:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20150301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$75:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73606656"/>
+        <c:axId val="73608192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73606656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73608192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73608192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73606656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10034951881014868"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.77121418975030098"/>
+          <c:h val="0.70771544181977264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$161</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年6月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$161:$J$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年7月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$162:$J$162</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$163</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年8月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$163:$J$163</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年9月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$164:$J$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年10月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$165:$J$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$166</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年11月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$166:$J$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013年12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$167:$J$167</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$168</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年1月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$168:$J$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年2月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$169:$J$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$170</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年3月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$170:$J$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$171</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年4月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$171:$J$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$172</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年5月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$172:$J$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年6月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$173:$J$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年7月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$174:$J$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$175</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年8月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$175:$J$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$176</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年9月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$176:$J$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$177</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年10月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$177:$J$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$178</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年11月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$178:$J$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014年12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$179:$J$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$180</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015年1月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$180:$J$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日积分分布!$A$181</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015/2/16日</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$B$160:$J$160</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$181:$J$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="73734784"/>
+        <c:axId val="73752960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="73734784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73752960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="73752960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73734784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88942065911004631"/>
+          <c:y val="4.4318990724212345E-2"/>
+          <c:w val="7.6578317688201725E-2"/>
+          <c:h val="0.73167857630512967"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$A$232:$A$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20150325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$232:$B$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="135359104"/>
+        <c:axId val="135410048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="135359104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135410048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135410048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135359104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>新增趋势</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$A$258:$A$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$B$258:$B$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>流失趋势</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>每日积分分布!$A$258:$A$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20150326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20150327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20150328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20150329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20150330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20150331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20150401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20150402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日积分分布!$D$258:$D$266</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="276963712"/>
+        <c:axId val="276965248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276963712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="276965248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276965248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="276963712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11352,11 +15056,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="83927808"/>
-        <c:axId val="83929344"/>
+        <c:axId val="67027712"/>
+        <c:axId val="67029248"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="83927808"/>
+        <c:axId val="67027712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11396,14 +15100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83929344"/>
+        <c:crossAx val="67029248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83929344"/>
+        <c:axId val="67029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11452,7 +15156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83927808"/>
+        <c:crossAx val="67027712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11524,7 +15228,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11726,11 +15430,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="85340544"/>
-        <c:axId val="85342080"/>
+        <c:axId val="68698496"/>
+        <c:axId val="68700032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85340544"/>
+        <c:axId val="68698496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11771,14 +15475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85342080"/>
+        <c:crossAx val="68700032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85342080"/>
+        <c:axId val="68700032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11827,7 +15531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85340544"/>
+        <c:crossAx val="68698496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11869,7 +15573,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12047,11 +15751,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="86968192"/>
-        <c:axId val="86969728"/>
+        <c:axId val="71251840"/>
+        <c:axId val="71253376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86968192"/>
+        <c:axId val="71251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12092,14 +15796,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86969728"/>
+        <c:crossAx val="71253376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86969728"/>
+        <c:axId val="71253376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12148,7 +15852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86968192"/>
+        <c:crossAx val="71251840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12190,7 +15894,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12589,7 +16293,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12605,7 +16309,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.44444444444444442"/>
-          <c:y val="2.7777777777777811E-2"/>
+          <c:y val="2.7777777777777853E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -12709,11 +16413,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="86859136"/>
-        <c:axId val="86877312"/>
+        <c:axId val="71146880"/>
+        <c:axId val="71160960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86859136"/>
+        <c:axId val="71146880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12754,14 +16458,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86877312"/>
+        <c:crossAx val="71160960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86877312"/>
+        <c:axId val="71160960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12810,7 +16514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86859136"/>
+        <c:crossAx val="71146880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12891,7 +16595,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13299,11 +17003,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="87076224"/>
-        <c:axId val="87082112"/>
+        <c:axId val="71355776"/>
+        <c:axId val="71361664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87076224"/>
+        <c:axId val="71355776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13344,14 +17048,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87082112"/>
+        <c:crossAx val="71361664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87082112"/>
+        <c:axId val="71361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13400,7 +17104,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87076224"/>
+        <c:crossAx val="71355776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13418,9 +17122,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16778958880139996"/>
-          <c:y val="0.86168926800816603"/>
-          <c:w val="0.29861080271690565"/>
+          <c:x val="0.16778958880140013"/>
+          <c:y val="0.86168926800816659"/>
+          <c:w val="0.29861080271690582"/>
           <c:h val="4.1636116728932214E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -13482,7 +17186,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23899,13 +27603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23929,13 +27633,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23959,13 +27663,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23989,13 +27693,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24019,13 +27723,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24040,6 +27744,336 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="图表 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name="图表 36"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="图表 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -25115,8 +29149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25593,7 +29627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView topLeftCell="L212" workbookViewId="0">
+    <sheetView topLeftCell="L197" workbookViewId="0">
       <selection activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
@@ -28180,19 +32214,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L7"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="L271" sqref="L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="B2">
         <v>20150301</v>
@@ -28403,9 +32448,1526 @@
         <v>276921</v>
       </c>
     </row>
+    <row r="12" spans="1:12">
+      <c r="C12">
+        <f>C7-B7</f>
+        <v>18808</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70">
+        <v>20150301</v>
+      </c>
+      <c r="C70">
+        <v>20150325</v>
+      </c>
+      <c r="D70">
+        <v>20150326</v>
+      </c>
+      <c r="E70">
+        <v>20150327</v>
+      </c>
+      <c r="F70">
+        <v>20150328</v>
+      </c>
+      <c r="G70">
+        <v>20150329</v>
+      </c>
+      <c r="H70">
+        <v>20150330</v>
+      </c>
+      <c r="I70">
+        <v>20150331</v>
+      </c>
+      <c r="J70">
+        <v>20150401</v>
+      </c>
+      <c r="K70">
+        <v>20150402</v>
+      </c>
+      <c r="L70">
+        <v>20150403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71">
+        <v>1676845</v>
+      </c>
+      <c r="C71">
+        <v>1662050</v>
+      </c>
+      <c r="D71">
+        <v>1646551</v>
+      </c>
+      <c r="E71">
+        <v>1647797</v>
+      </c>
+      <c r="F71">
+        <v>1630533</v>
+      </c>
+      <c r="G71">
+        <v>1600521</v>
+      </c>
+      <c r="H71">
+        <v>1591284</v>
+      </c>
+      <c r="I71">
+        <v>1589523</v>
+      </c>
+      <c r="J71">
+        <v>1628843</v>
+      </c>
+      <c r="K71">
+        <v>1633046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72">
+        <v>347290</v>
+      </c>
+      <c r="C72">
+        <v>396735</v>
+      </c>
+      <c r="D72">
+        <v>378020</v>
+      </c>
+      <c r="E72">
+        <v>371801</v>
+      </c>
+      <c r="F72">
+        <v>354505</v>
+      </c>
+      <c r="G72">
+        <v>440785</v>
+      </c>
+      <c r="H72">
+        <v>454500</v>
+      </c>
+      <c r="I72">
+        <v>371539</v>
+      </c>
+      <c r="J72">
+        <v>443185</v>
+      </c>
+      <c r="K72">
+        <v>412674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73">
+        <v>55205</v>
+      </c>
+      <c r="C73">
+        <v>34839</v>
+      </c>
+      <c r="D73">
+        <v>35846</v>
+      </c>
+      <c r="E73">
+        <v>36078</v>
+      </c>
+      <c r="F73">
+        <v>38641</v>
+      </c>
+      <c r="G73">
+        <v>33230</v>
+      </c>
+      <c r="H73">
+        <v>31576</v>
+      </c>
+      <c r="I73">
+        <v>36746</v>
+      </c>
+      <c r="J73">
+        <v>40755</v>
+      </c>
+      <c r="K73">
+        <v>40739</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74">
+        <v>107713</v>
+      </c>
+      <c r="C74">
+        <v>81926</v>
+      </c>
+      <c r="D74">
+        <v>80052</v>
+      </c>
+      <c r="E74">
+        <v>79687</v>
+      </c>
+      <c r="F74">
+        <v>78259</v>
+      </c>
+      <c r="G74">
+        <v>77838</v>
+      </c>
+      <c r="H74">
+        <v>78094</v>
+      </c>
+      <c r="I74">
+        <v>81932</v>
+      </c>
+      <c r="J74">
+        <v>96414</v>
+      </c>
+      <c r="K74">
+        <v>104392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75">
+        <v>69601</v>
+      </c>
+      <c r="C75">
+        <v>67810</v>
+      </c>
+      <c r="D75">
+        <v>71348</v>
+      </c>
+      <c r="E75">
+        <v>76223</v>
+      </c>
+      <c r="F75">
+        <v>68277</v>
+      </c>
+      <c r="G75">
+        <v>63885</v>
+      </c>
+      <c r="H75">
+        <v>65617</v>
+      </c>
+      <c r="I75">
+        <v>92330</v>
+      </c>
+      <c r="J75">
+        <v>108058</v>
+      </c>
+      <c r="K75">
+        <v>108117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="B130">
+        <v>20150301</v>
+      </c>
+      <c r="C130">
+        <v>20150325</v>
+      </c>
+      <c r="D130">
+        <v>20150326</v>
+      </c>
+      <c r="E130">
+        <v>20150327</v>
+      </c>
+      <c r="F130">
+        <v>20150328</v>
+      </c>
+      <c r="G130">
+        <v>20150329</v>
+      </c>
+      <c r="H130">
+        <v>20150330</v>
+      </c>
+      <c r="I130">
+        <v>20150331</v>
+      </c>
+      <c r="J130">
+        <v>20150401</v>
+      </c>
+      <c r="K130">
+        <v>20150402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131">
+        <f>B3/B71</f>
+        <v>25.288096991671861</v>
+      </c>
+      <c r="C131">
+        <f>C3/C71</f>
+        <v>25.958624590114617</v>
+      </c>
+      <c r="D131">
+        <f>D3/D71</f>
+        <v>25.373860269132265</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:K131" si="0">E3/E71</f>
+        <v>25.259100483858145</v>
+      </c>
+      <c r="F131">
+        <f>F3/F71</f>
+        <v>24.193893653179664</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="0"/>
+        <v>23.97281260289618</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="0"/>
+        <v>25.364826768823164</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="0"/>
+        <v>25.46804607419962</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="0"/>
+        <v>25.523658817946234</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="0"/>
+        <v>25.561766784279193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132">
+        <f>B4/B72</f>
+        <v>1.9667050591724495</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:K132" si="1">C4/C72</f>
+        <v>2.0891275032452392</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>2.0549653457489021</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="1"/>
+        <v>1.9030583564864001</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="1"/>
+        <v>1.6897758846842781</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="1"/>
+        <v>1.8630624907834885</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="1"/>
+        <v>2.4843542354235422</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="1"/>
+        <v>2.1721003716971841</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="1"/>
+        <v>2.3637239527511085</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="1"/>
+        <v>1.904765020330818</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133">
+        <f>B5/B73</f>
+        <v>4.0031156598134228</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:K133" si="2">C5/C73</f>
+        <v>4.0710697781222196</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>4.1181163867656085</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>4.0859249404068958</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>4.1229264252995526</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>4.1221486608486311</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>4.1306688624271599</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>4.0023948184836442</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="2"/>
+        <v>3.9856459330143541</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="2"/>
+        <v>4.0990696875230119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134">
+        <f>B6/B74</f>
+        <v>4.9225627361599811</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ref="C134:K134" si="3">C6/C74</f>
+        <v>4.9365769108707855</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="3"/>
+        <v>4.9490581122270525</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="3"/>
+        <v>5.0065506293372817</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="3"/>
+        <v>5.1541675717808815</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>5.2652431974100056</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="3"/>
+        <v>5.2387123210489923</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="3"/>
+        <v>5.0829590392032413</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="3"/>
+        <v>4.7350592237641838</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="3"/>
+        <v>4.6095677829718751</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135">
+        <f>B7/B75</f>
+        <v>2.47938966394161</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ref="C135:K135" si="4">C7/C75</f>
+        <v>2.8222386078749446</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="4"/>
+        <v>2.832497056679935</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>2.9046613226978732</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>3.0146169281017032</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>2.9439305001173985</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>2.8488044256823688</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="4"/>
+        <v>2.6380699664247809</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>2.5383590294101315</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="4"/>
+        <v>2.5613085823691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" s="9">
+        <v>42088</v>
+      </c>
+      <c r="C160" s="9">
+        <v>42089</v>
+      </c>
+      <c r="D160" s="9">
+        <v>42090</v>
+      </c>
+      <c r="E160" s="9">
+        <v>42091</v>
+      </c>
+      <c r="F160" s="9">
+        <v>42092</v>
+      </c>
+      <c r="G160" s="9">
+        <v>42093</v>
+      </c>
+      <c r="H160" s="9">
+        <v>42094</v>
+      </c>
+      <c r="I160" s="9">
+        <v>42095</v>
+      </c>
+      <c r="J160" s="9">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="4">
+        <v>41426</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="4">
+        <v>41456</v>
+      </c>
+      <c r="B162">
+        <v>21</v>
+      </c>
+      <c r="C162">
+        <v>19</v>
+      </c>
+      <c r="D162">
+        <v>28</v>
+      </c>
+      <c r="E162">
+        <v>25</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162">
+        <v>21</v>
+      </c>
+      <c r="H162">
+        <v>31</v>
+      </c>
+      <c r="I162">
+        <v>37</v>
+      </c>
+      <c r="J162">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="4">
+        <v>41487</v>
+      </c>
+      <c r="B163">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>24</v>
+      </c>
+      <c r="D163">
+        <v>25</v>
+      </c>
+      <c r="E163">
+        <v>17</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163">
+        <v>22</v>
+      </c>
+      <c r="H163">
+        <v>37</v>
+      </c>
+      <c r="I163">
+        <v>36</v>
+      </c>
+      <c r="J163">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B164">
+        <v>134</v>
+      </c>
+      <c r="C164">
+        <v>141</v>
+      </c>
+      <c r="D164">
+        <v>172</v>
+      </c>
+      <c r="E164">
+        <v>142</v>
+      </c>
+      <c r="F164">
+        <v>124</v>
+      </c>
+      <c r="G164">
+        <v>142</v>
+      </c>
+      <c r="H164">
+        <v>208</v>
+      </c>
+      <c r="I164">
+        <v>259</v>
+      </c>
+      <c r="J164">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="4">
+        <v>41548</v>
+      </c>
+      <c r="B165">
+        <v>91</v>
+      </c>
+      <c r="C165">
+        <v>104</v>
+      </c>
+      <c r="D165">
+        <v>108</v>
+      </c>
+      <c r="E165">
+        <v>85</v>
+      </c>
+      <c r="F165">
+        <v>91</v>
+      </c>
+      <c r="G165">
+        <v>80</v>
+      </c>
+      <c r="H165">
+        <v>152</v>
+      </c>
+      <c r="I165">
+        <v>141</v>
+      </c>
+      <c r="J165">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="4">
+        <v>41579</v>
+      </c>
+      <c r="B166">
+        <v>72</v>
+      </c>
+      <c r="C166">
+        <v>76</v>
+      </c>
+      <c r="D166">
+        <v>77</v>
+      </c>
+      <c r="E166">
+        <v>63</v>
+      </c>
+      <c r="F166">
+        <v>68</v>
+      </c>
+      <c r="G166">
+        <v>59</v>
+      </c>
+      <c r="H166">
+        <v>97</v>
+      </c>
+      <c r="I166">
+        <v>103</v>
+      </c>
+      <c r="J166">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B167">
+        <v>29</v>
+      </c>
+      <c r="C167">
+        <v>28</v>
+      </c>
+      <c r="D167">
+        <v>27</v>
+      </c>
+      <c r="E167">
+        <v>37</v>
+      </c>
+      <c r="F167">
+        <v>27</v>
+      </c>
+      <c r="G167">
+        <v>24</v>
+      </c>
+      <c r="H167">
+        <v>39</v>
+      </c>
+      <c r="I167">
+        <v>54</v>
+      </c>
+      <c r="J167">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="4">
+        <v>41640</v>
+      </c>
+      <c r="B168">
+        <v>38</v>
+      </c>
+      <c r="C168">
+        <v>38</v>
+      </c>
+      <c r="D168">
+        <v>44</v>
+      </c>
+      <c r="E168">
+        <v>39</v>
+      </c>
+      <c r="F168">
+        <v>35</v>
+      </c>
+      <c r="G168">
+        <v>30</v>
+      </c>
+      <c r="H168">
+        <v>44</v>
+      </c>
+      <c r="I168">
+        <v>45</v>
+      </c>
+      <c r="J168">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="4">
+        <v>41671</v>
+      </c>
+      <c r="B169">
+        <v>121</v>
+      </c>
+      <c r="C169">
+        <v>135</v>
+      </c>
+      <c r="D169">
+        <v>157</v>
+      </c>
+      <c r="E169">
+        <v>129</v>
+      </c>
+      <c r="F169">
+        <v>131</v>
+      </c>
+      <c r="G169">
+        <v>137</v>
+      </c>
+      <c r="H169">
+        <v>156</v>
+      </c>
+      <c r="I169">
+        <v>179</v>
+      </c>
+      <c r="J169">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="4">
+        <v>41699</v>
+      </c>
+      <c r="B170">
+        <v>183</v>
+      </c>
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <v>195</v>
+      </c>
+      <c r="E170">
+        <v>183</v>
+      </c>
+      <c r="F170">
+        <v>179</v>
+      </c>
+      <c r="G170">
+        <v>177</v>
+      </c>
+      <c r="H170">
+        <v>203</v>
+      </c>
+      <c r="I170">
+        <v>237</v>
+      </c>
+      <c r="J170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="4">
+        <v>41730</v>
+      </c>
+      <c r="B171">
+        <v>460</v>
+      </c>
+      <c r="C171">
+        <v>457</v>
+      </c>
+      <c r="D171">
+        <v>517</v>
+      </c>
+      <c r="E171">
+        <v>413</v>
+      </c>
+      <c r="F171">
+        <v>424</v>
+      </c>
+      <c r="G171">
+        <v>423</v>
+      </c>
+      <c r="H171">
+        <v>566</v>
+      </c>
+      <c r="I171">
+        <v>629</v>
+      </c>
+      <c r="J171">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="4">
+        <v>41760</v>
+      </c>
+      <c r="B172">
+        <v>618</v>
+      </c>
+      <c r="C172">
+        <v>648</v>
+      </c>
+      <c r="D172">
+        <v>740</v>
+      </c>
+      <c r="E172">
+        <v>613</v>
+      </c>
+      <c r="F172">
+        <v>566</v>
+      </c>
+      <c r="G172">
+        <v>586</v>
+      </c>
+      <c r="H172">
+        <v>812</v>
+      </c>
+      <c r="I172">
+        <v>860</v>
+      </c>
+      <c r="J172">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="4">
+        <v>41791</v>
+      </c>
+      <c r="B173">
+        <v>596</v>
+      </c>
+      <c r="C173">
+        <v>651</v>
+      </c>
+      <c r="D173">
+        <v>705</v>
+      </c>
+      <c r="E173">
+        <v>600</v>
+      </c>
+      <c r="F173">
+        <v>556</v>
+      </c>
+      <c r="G173">
+        <v>585</v>
+      </c>
+      <c r="H173">
+        <v>821</v>
+      </c>
+      <c r="I173">
+        <v>910</v>
+      </c>
+      <c r="J173">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="4">
+        <v>41821</v>
+      </c>
+      <c r="B174">
+        <v>3036</v>
+      </c>
+      <c r="C174">
+        <v>3177</v>
+      </c>
+      <c r="D174">
+        <v>3483</v>
+      </c>
+      <c r="E174">
+        <v>2920</v>
+      </c>
+      <c r="F174">
+        <v>2794</v>
+      </c>
+      <c r="G174">
+        <v>3022</v>
+      </c>
+      <c r="H174">
+        <v>4076</v>
+      </c>
+      <c r="I174">
+        <v>4696</v>
+      </c>
+      <c r="J174">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="4">
+        <v>41852</v>
+      </c>
+      <c r="B175">
+        <v>2941</v>
+      </c>
+      <c r="C175">
+        <v>3085</v>
+      </c>
+      <c r="D175">
+        <v>3416</v>
+      </c>
+      <c r="E175">
+        <v>2885</v>
+      </c>
+      <c r="F175">
+        <v>2696</v>
+      </c>
+      <c r="G175">
+        <v>2836</v>
+      </c>
+      <c r="H175">
+        <v>4114</v>
+      </c>
+      <c r="I175">
+        <v>4770</v>
+      </c>
+      <c r="J175">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="4">
+        <v>41883</v>
+      </c>
+      <c r="B176">
+        <v>3639</v>
+      </c>
+      <c r="C176">
+        <v>3791</v>
+      </c>
+      <c r="D176">
+        <v>4181</v>
+      </c>
+      <c r="E176">
+        <v>3485</v>
+      </c>
+      <c r="F176">
+        <v>3384</v>
+      </c>
+      <c r="G176">
+        <v>3509</v>
+      </c>
+      <c r="H176">
+        <v>5120</v>
+      </c>
+      <c r="I176">
+        <v>6206</v>
+      </c>
+      <c r="J176">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="4">
+        <v>41913</v>
+      </c>
+      <c r="B177">
+        <v>7110</v>
+      </c>
+      <c r="C177">
+        <v>7492</v>
+      </c>
+      <c r="D177">
+        <v>8217</v>
+      </c>
+      <c r="E177">
+        <v>7100</v>
+      </c>
+      <c r="F177">
+        <v>6571</v>
+      </c>
+      <c r="G177">
+        <v>6886</v>
+      </c>
+      <c r="H177">
+        <v>10413</v>
+      </c>
+      <c r="I177">
+        <v>12358</v>
+      </c>
+      <c r="J177">
+        <v>12273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="4">
+        <v>41944</v>
+      </c>
+      <c r="B178">
+        <v>6839</v>
+      </c>
+      <c r="C178">
+        <v>7150</v>
+      </c>
+      <c r="D178">
+        <v>7756</v>
+      </c>
+      <c r="E178">
+        <v>6673</v>
+      </c>
+      <c r="F178">
+        <v>6203</v>
+      </c>
+      <c r="G178">
+        <v>6542</v>
+      </c>
+      <c r="H178">
+        <v>9553</v>
+      </c>
+      <c r="I178">
+        <v>11446</v>
+      </c>
+      <c r="J178">
+        <v>11764</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="4">
+        <v>41974</v>
+      </c>
+      <c r="B179">
+        <v>6524</v>
+      </c>
+      <c r="C179">
+        <v>6933</v>
+      </c>
+      <c r="D179">
+        <v>7818</v>
+      </c>
+      <c r="E179">
+        <v>6718</v>
+      </c>
+      <c r="F179">
+        <v>6152</v>
+      </c>
+      <c r="G179">
+        <v>6454</v>
+      </c>
+      <c r="H179">
+        <v>9271</v>
+      </c>
+      <c r="I179">
+        <v>11034</v>
+      </c>
+      <c r="J179">
+        <v>11012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="4">
+        <v>42005</v>
+      </c>
+      <c r="B180">
+        <v>6439</v>
+      </c>
+      <c r="C180">
+        <v>6802</v>
+      </c>
+      <c r="D180">
+        <v>7603</v>
+      </c>
+      <c r="E180">
+        <v>6474</v>
+      </c>
+      <c r="F180">
+        <v>5908</v>
+      </c>
+      <c r="G180">
+        <v>6118</v>
+      </c>
+      <c r="H180">
+        <v>8681</v>
+      </c>
+      <c r="I180">
+        <v>10084</v>
+      </c>
+      <c r="J180">
+        <v>9901</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B181">
+        <v>3478</v>
+      </c>
+      <c r="C181">
+        <v>3677</v>
+      </c>
+      <c r="D181">
+        <v>3879</v>
+      </c>
+      <c r="E181">
+        <v>3564</v>
+      </c>
+      <c r="F181">
+        <v>3214</v>
+      </c>
+      <c r="G181">
+        <v>3136</v>
+      </c>
+      <c r="H181">
+        <v>4454</v>
+      </c>
+      <c r="I181">
+        <v>5197</v>
+      </c>
+      <c r="J181">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ref="B182:H182" si="5">C75-B183</f>
+        <v>25422</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>26752</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="5"/>
+        <v>27075</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>26112</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>24725</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="5"/>
+        <v>24828</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="5"/>
+        <v>33482</v>
+      </c>
+      <c r="I182">
+        <f t="shared" ref="I182" si="6">J75-I183</f>
+        <v>38777</v>
+      </c>
+      <c r="J182">
+        <f>K75-J183</f>
+        <v>39064</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="B183">
+        <f>SUM(B162:B181)</f>
+        <v>42388</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ref="C183:I183" si="7">SUM(C162:C181)</f>
+        <v>44596</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="7"/>
+        <v>49148</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="7"/>
+        <v>42165</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="7"/>
+        <v>39160</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="7"/>
+        <v>40789</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="7"/>
+        <v>58848</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="7"/>
+        <v>69281</v>
+      </c>
+      <c r="J183">
+        <f>SUM(J161:J181)</f>
+        <v>69053</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>108117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>20150325</v>
+      </c>
+      <c r="B232">
+        <v>22285</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>20150326</v>
+      </c>
+      <c r="B233">
+        <v>23937</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>20150327</v>
+      </c>
+      <c r="B234">
+        <v>26443</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>20150328</v>
+      </c>
+      <c r="B235">
+        <v>22799</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>20150329</v>
+      </c>
+      <c r="B236">
+        <v>22354</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>20150330</v>
+      </c>
+      <c r="B237">
+        <v>25747</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>20150331</v>
+      </c>
+      <c r="B238">
+        <v>38273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>20150401</v>
+      </c>
+      <c r="B239">
+        <v>51115</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="B257" t="s">
+        <v>242</v>
+      </c>
+      <c r="D257" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>20150326</v>
+      </c>
+      <c r="B258">
+        <v>39736</v>
+      </c>
+      <c r="C258" t="s">
+        <v>241</v>
+      </c>
+      <c r="D258">
+        <v>36198</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>20150327</v>
+      </c>
+      <c r="B259">
+        <v>40657</v>
+      </c>
+      <c r="C259" t="s">
+        <v>240</v>
+      </c>
+      <c r="D259">
+        <v>35782</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>20150328</v>
+      </c>
+      <c r="B260">
+        <v>36166</v>
+      </c>
+      <c r="C260" t="s">
+        <v>239</v>
+      </c>
+      <c r="D260">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>20150329</v>
+      </c>
+      <c r="B261">
+        <v>36169</v>
+      </c>
+      <c r="C261" t="s">
+        <v>238</v>
+      </c>
+      <c r="D261">
+        <v>40561</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>20150330</v>
+      </c>
+      <c r="B262">
+        <v>39063</v>
+      </c>
+      <c r="C262" t="s">
+        <v>237</v>
+      </c>
+      <c r="D262">
+        <v>37331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>20150331</v>
+      </c>
+      <c r="B263">
+        <v>60873</v>
+      </c>
+      <c r="C263" t="s">
+        <v>236</v>
+      </c>
+      <c r="D263">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>20150401</v>
+      </c>
+      <c r="B264">
+        <v>64234</v>
+      </c>
+      <c r="C264" t="s">
+        <v>235</v>
+      </c>
+      <c r="D264">
+        <v>48506</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>20150402</v>
+      </c>
+      <c r="B265">
+        <v>57002</v>
+      </c>
+      <c r="C265" t="s">
+        <v>234</v>
+      </c>
+      <c r="D265">
+        <v>56943</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:B21">
-    <sortCondition ref="A1"/>
+  <sortState ref="A291:D298">
+    <sortCondition ref="A291"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
